--- a/biology/Zoologie/Gelanor_zonatus/Gelanor_zonatus.xlsx
+++ b/biology/Zoologie/Gelanor_zonatus/Gelanor_zonatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gelanor zonatus est une espèce d'araignées aranéomorphes de la famille des Mimetidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gelanor zonatus est une espèce d'araignées aranéomorphes de la famille des Mimetidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Mexique, au Guatemala, au Nicaragua, au Costa Rica, au Panama, en Colombie, en Équateur, au Pérou, en Bolivie, au Paraguay, au Brésil, en Guyane et au Guyana[1],[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Mexique, au Guatemala, au Nicaragua, au Costa Rica, au Panama, en Colombie, en Équateur, au Pérou, en Bolivie, au Paraguay, au Brésil, en Guyane et au Guyana,. 
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Benavides et Hormiga en 2016 mesure 3,94 mm et la femelle 7,26 mm[3].
-Les mâles mesurent de 3,94 à 4,40 mm et les femelles de 6,15 à 6,79 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Benavides et Hormiga en 2016 mesure 3,94 mm et la femelle 7,26 mm.
+Les mâles mesurent de 3,94 à 4,40 mm et les femelles de 6,15 à 6,79 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>C. L. Koch, 1845 : Die Arachniden. Nürnberg, C.H. Zeh’sche Buchhandlung, vol. 12, p. 1–166 (texte intégral).</t>
         </is>
